--- a/natmiOut/OldD4/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Dcn-Tlr2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,6 +85,9 @@
     <t>M1</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -92,9 +95,6 @@
   </si>
   <si>
     <t>Tlr2</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.04659881979862</v>
+        <v>7.737866</v>
       </c>
       <c r="H2">
-        <v>5.04659881979862</v>
+        <v>23.213598</v>
       </c>
       <c r="I2">
-        <v>0.00359182203285582</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J2">
-        <v>0.00359182203285582</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.44378936923853</v>
+        <v>0.919382</v>
       </c>
       <c r="N2">
-        <v>2.44378936923853</v>
+        <v>2.758146</v>
       </c>
       <c r="O2">
-        <v>0.01705382400208084</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P2">
-        <v>0.01705382400208084</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q2">
-        <v>12.33282454663558</v>
+        <v>7.114054718812</v>
       </c>
       <c r="R2">
-        <v>12.33282454663558</v>
+        <v>64.026492469308</v>
       </c>
       <c r="S2">
-        <v>6.125430079511938E-05</v>
+        <v>2.951124430849407E-05</v>
       </c>
       <c r="T2">
-        <v>6.125430079511938E-05</v>
+        <v>2.99351633626722E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.04659881979862</v>
+        <v>7.737866</v>
       </c>
       <c r="H3">
-        <v>5.04659881979862</v>
+        <v>23.213598</v>
       </c>
       <c r="I3">
-        <v>0.00359182203285582</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J3">
-        <v>0.00359182203285582</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>51.2201576610693</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N3">
-        <v>51.2201576610693</v>
+        <v>7.593403</v>
       </c>
       <c r="O3">
-        <v>0.3574365144173148</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P3">
-        <v>0.3574365144173148</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q3">
-        <v>258.4875872022516</v>
+        <v>19.58557829933267</v>
       </c>
       <c r="R3">
-        <v>258.4875872022516</v>
+        <v>176.270204693994</v>
       </c>
       <c r="S3">
-        <v>0.001283848347831298</v>
+        <v>8.124688506911956E-05</v>
       </c>
       <c r="T3">
-        <v>0.001283848347831298</v>
+        <v>8.241396912404388E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.04659881979862</v>
+        <v>7.737866</v>
       </c>
       <c r="H4">
-        <v>5.04659881979862</v>
+        <v>23.213598</v>
       </c>
       <c r="I4">
-        <v>0.00359182203285582</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J4">
-        <v>0.00359182203285582</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>89.4103574859068</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N4">
-        <v>89.4103574859068</v>
+        <v>195.090483</v>
       </c>
       <c r="O4">
-        <v>0.6239443217657096</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P4">
-        <v>0.6239443217657096</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q4">
-        <v>451.21820456615</v>
+        <v>503.194671776426</v>
       </c>
       <c r="R4">
-        <v>451.21820456615</v>
+        <v>4528.752045987834</v>
       </c>
       <c r="S4">
-        <v>0.002241096962193357</v>
+        <v>0.002087403243365329</v>
       </c>
       <c r="T4">
-        <v>0.002241096962193357</v>
+        <v>0.002117388085731366</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.04659881979862</v>
+        <v>7.737866</v>
       </c>
       <c r="H5">
-        <v>5.04659881979862</v>
+        <v>23.213598</v>
       </c>
       <c r="I5">
-        <v>0.00359182203285582</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J5">
-        <v>0.00359182203285582</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.224311028331199</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N5">
-        <v>0.224311028331199</v>
+        <v>274.453155</v>
       </c>
       <c r="O5">
-        <v>0.00156533981489493</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P5">
-        <v>0.00156533981489493</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q5">
-        <v>1.132007770844044</v>
+        <v>707.8939122224102</v>
       </c>
       <c r="R5">
-        <v>1.132007770844044</v>
+        <v>6371.045210001691</v>
       </c>
       <c r="S5">
-        <v>5.622422036046059E-06</v>
+        <v>0.002936557422428686</v>
       </c>
       <c r="T5">
-        <v>5.622422036046059E-06</v>
+        <v>0.002978740077691969</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>24</v>
       </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1341.52906025075</v>
+        <v>7.737866</v>
       </c>
       <c r="H6">
-        <v>1341.52906025075</v>
+        <v>23.213598</v>
       </c>
       <c r="I6">
-        <v>0.9548081407662372</v>
+        <v>0.005143665428903488</v>
       </c>
       <c r="J6">
-        <v>0.9548081407662372</v>
+        <v>0.005214527395311928</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.44378936923853</v>
+        <v>0.27872</v>
       </c>
       <c r="N6">
-        <v>2.44378936923853</v>
+        <v>0.55744</v>
       </c>
       <c r="O6">
-        <v>0.01705382400208084</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P6">
-        <v>0.01705382400208084</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q6">
-        <v>3278.414455965339</v>
+        <v>2.15669801152</v>
       </c>
       <c r="R6">
-        <v>3278.414455965339</v>
+        <v>12.94018806912</v>
       </c>
       <c r="S6">
-        <v>0.01628312998838144</v>
+        <v>8.94663373185843E-06</v>
       </c>
       <c r="T6">
-        <v>0.01628312998838144</v>
+        <v>6.050099401876475E-06</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1341.52906025075</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H7">
-        <v>1341.52906025075</v>
+        <v>4295.770264</v>
       </c>
       <c r="I7">
-        <v>0.9548081407662372</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J7">
-        <v>0.9548081407662372</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>51.2201576610693</v>
+        <v>0.919382</v>
       </c>
       <c r="N7">
-        <v>51.2201576610693</v>
+        <v>2.758146</v>
       </c>
       <c r="O7">
-        <v>0.3574365144173148</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P7">
-        <v>0.3574365144173148</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q7">
-        <v>68713.32997294955</v>
+        <v>1316.484618952283</v>
       </c>
       <c r="R7">
-        <v>68713.32997294955</v>
+        <v>11848.36157057054</v>
       </c>
       <c r="S7">
-        <v>0.3412832937727607</v>
+        <v>0.005461175202313232</v>
       </c>
       <c r="T7">
-        <v>0.3412832937727607</v>
+        <v>0.005539623139047617</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1341.52906025075</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H8">
-        <v>1341.52906025075</v>
+        <v>4295.770264</v>
       </c>
       <c r="I8">
-        <v>0.9548081407662372</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J8">
-        <v>0.9548081407662372</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>89.4103574859068</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N8">
-        <v>89.4103574859068</v>
+        <v>7.593403</v>
       </c>
       <c r="O8">
-        <v>0.6239443217657096</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P8">
-        <v>0.6239443217657096</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q8">
-        <v>119946.5928547522</v>
+        <v>3624.390534440932</v>
       </c>
       <c r="R8">
-        <v>119946.5928547522</v>
+        <v>32619.51480996839</v>
       </c>
       <c r="S8">
-        <v>0.595747117806768</v>
+        <v>0.01503506491852531</v>
       </c>
       <c r="T8">
-        <v>0.595747117806768</v>
+        <v>0.01525103854651407</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,185 +959,185 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1341.52906025075</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H9">
-        <v>1341.52906025075</v>
+        <v>4295.770264</v>
       </c>
       <c r="I9">
-        <v>0.9548081407662372</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J9">
-        <v>0.9548081407662372</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.224311028331199</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N9">
-        <v>0.224311028331199</v>
+        <v>195.090483</v>
       </c>
       <c r="O9">
-        <v>0.00156533981489493</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P9">
-        <v>0.00156533981489493</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q9">
-        <v>300.9197630410328</v>
+        <v>93118.2106289775</v>
       </c>
       <c r="R9">
-        <v>300.9197630410328</v>
+        <v>838063.8956607975</v>
       </c>
       <c r="S9">
-        <v>0.001494599198327194</v>
+        <v>0.3862824186852005</v>
       </c>
       <c r="T9">
-        <v>0.001494599198327194</v>
+        <v>0.3918312351248903</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>0.410804851581461</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H10">
-        <v>0.410804851581461</v>
+        <v>4295.770264</v>
       </c>
       <c r="I10">
-        <v>0.0002923826461746045</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J10">
-        <v>0.0002923826461746045</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.44378936923853</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N10">
-        <v>2.44378936923853</v>
+        <v>274.453155</v>
       </c>
       <c r="O10">
-        <v>0.01705382400208084</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P10">
-        <v>0.01705382400208084</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q10">
-        <v>1.003920529126387</v>
+        <v>130998.6335677759</v>
       </c>
       <c r="R10">
-        <v>1.003920529126387</v>
+        <v>1178987.702109983</v>
       </c>
       <c r="S10">
-        <v>4.986242189124381E-06</v>
+        <v>0.5434218363649459</v>
       </c>
       <c r="T10">
-        <v>4.986242189124381E-06</v>
+        <v>0.5512279074503751</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>24</v>
       </c>
-      <c r="C11" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" t="s">
-        <v>22</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>0.410804851581461</v>
+        <v>1431.923421333333</v>
       </c>
       <c r="H11">
-        <v>0.410804851581461</v>
+        <v>4295.770264</v>
       </c>
       <c r="I11">
-        <v>0.0002923826461746045</v>
+        <v>0.9518561059534332</v>
       </c>
       <c r="J11">
-        <v>0.0002923826461746045</v>
+        <v>0.964969399642156</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.2201576610693</v>
+        <v>0.27872</v>
       </c>
       <c r="N11">
-        <v>51.2201576610693</v>
+        <v>0.55744</v>
       </c>
       <c r="O11">
-        <v>0.3574365144173148</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P11">
-        <v>0.3574365144173148</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q11">
-        <v>21.04148926593461</v>
+        <v>399.1056959940266</v>
       </c>
       <c r="R11">
-        <v>21.04148926593461</v>
+        <v>2394.63417596416</v>
       </c>
       <c r="S11">
-        <v>0.0001045082339247617</v>
+        <v>0.001655610782448149</v>
       </c>
       <c r="T11">
-        <v>0.0001045082339247617</v>
+        <v>0.001119595381328872</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1145,61 +1145,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.410804851581461</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H12">
-        <v>0.410804851581461</v>
+        <v>6.793799</v>
       </c>
       <c r="I12">
-        <v>0.0002923826461746045</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J12">
-        <v>0.0002923826461746045</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>89.4103574859068</v>
+        <v>0.919382</v>
       </c>
       <c r="N12">
-        <v>89.4103574859068</v>
+        <v>2.758146</v>
       </c>
       <c r="O12">
-        <v>0.6239443217657096</v>
+        <v>0.005737395776689386</v>
       </c>
       <c r="P12">
-        <v>0.6239443217657096</v>
+        <v>0.005740724152602041</v>
       </c>
       <c r="Q12">
-        <v>36.73020863684332</v>
+        <v>2.082032170739334</v>
       </c>
       <c r="R12">
-        <v>36.73020863684332</v>
+        <v>18.738289536654</v>
       </c>
       <c r="S12">
-        <v>0.0001824304918634771</v>
+        <v>8.6368973078539E-06</v>
       </c>
       <c r="T12">
-        <v>0.0001824304918634771</v>
+        <v>8.760963419723174E-06</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1207,247 +1207,247 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.410804851581461</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H13">
-        <v>0.410804851581461</v>
+        <v>6.793799</v>
       </c>
       <c r="I13">
-        <v>0.0002923826461746045</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J13">
-        <v>0.0002923826461746045</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.224311028331199</v>
+        <v>2.531134333333334</v>
       </c>
       <c r="N13">
-        <v>0.224311028331199</v>
+        <v>7.593403</v>
       </c>
       <c r="O13">
-        <v>0.00156533981489493</v>
+        <v>0.01579552289940435</v>
       </c>
       <c r="P13">
-        <v>0.00156533981489493</v>
+        <v>0.01580468619229758</v>
       </c>
       <c r="Q13">
-        <v>0.09214805870168311</v>
+        <v>5.732005967555224</v>
       </c>
       <c r="R13">
-        <v>0.09214805870168311</v>
+        <v>51.588053707997</v>
       </c>
       <c r="S13">
-        <v>4.576781972414451E-07</v>
+        <v>2.377808931367293E-05</v>
       </c>
       <c r="T13">
-        <v>4.576781972414451E-07</v>
+        <v>2.411965353328511E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>58.0382766233033</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H14">
-        <v>58.0382766233033</v>
+        <v>6.793799</v>
       </c>
       <c r="I14">
-        <v>0.04130765455473241</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J14">
-        <v>0.04130765455473241</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.44378936923853</v>
+        <v>65.03016100000001</v>
       </c>
       <c r="N14">
-        <v>2.44378936923853</v>
+        <v>195.090483</v>
       </c>
       <c r="O14">
-        <v>0.01705382400208084</v>
+        <v>0.4058201825561418</v>
       </c>
       <c r="P14">
-        <v>0.01705382400208084</v>
+        <v>0.4060556068101174</v>
       </c>
       <c r="Q14">
-        <v>141.8333234209537</v>
+        <v>147.2672809238797</v>
       </c>
       <c r="R14">
-        <v>141.8333234209537</v>
+        <v>1325.405528314917</v>
       </c>
       <c r="S14">
-        <v>0.0007044534707151596</v>
+        <v>0.0006109090916182889</v>
       </c>
       <c r="T14">
-        <v>0.0007044534707151596</v>
+        <v>0.0006196845943250016</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>22</v>
-      </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>58.0382766233033</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H15">
-        <v>58.0382766233033</v>
+        <v>6.793799</v>
       </c>
       <c r="I15">
-        <v>0.04130765455473241</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J15">
-        <v>0.04130765455473241</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>51.2201576610693</v>
+        <v>91.48438500000002</v>
       </c>
       <c r="N15">
-        <v>51.2201576610693</v>
+        <v>274.453155</v>
       </c>
       <c r="O15">
-        <v>0.3574365144173148</v>
+        <v>0.5709075489100568</v>
       </c>
       <c r="P15">
-        <v>0.3574365144173148</v>
+        <v>0.5712387435858478</v>
       </c>
       <c r="Q15">
-        <v>2972.729679022348</v>
+        <v>207.1755077762051</v>
       </c>
       <c r="R15">
-        <v>2972.729679022348</v>
+        <v>1864.579569985845</v>
       </c>
       <c r="S15">
-        <v>0.01476486406279807</v>
+        <v>0.0008594264826994327</v>
       </c>
       <c r="T15">
-        <v>0.01476486406279807</v>
+        <v>0.0008717718537679348</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>26</v>
-      </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>58.0382766233033</v>
+        <v>2.264599666666667</v>
       </c>
       <c r="H16">
-        <v>58.0382766233033</v>
+        <v>6.793799</v>
       </c>
       <c r="I16">
-        <v>0.04130765455473241</v>
+        <v>0.001505368924163289</v>
       </c>
       <c r="J16">
-        <v>0.04130765455473241</v>
+        <v>0.001526107715130708</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>89.4103574859068</v>
+        <v>0.27872</v>
       </c>
       <c r="N16">
-        <v>89.4103574859068</v>
+        <v>0.55744</v>
       </c>
       <c r="O16">
-        <v>0.6239443217657096</v>
+        <v>0.001739349857707531</v>
       </c>
       <c r="P16">
-        <v>0.6239443217657096</v>
+        <v>0.001160239259135115</v>
       </c>
       <c r="Q16">
-        <v>5189.223060755496</v>
+        <v>0.6311892190933334</v>
       </c>
       <c r="R16">
-        <v>5189.223060755496</v>
+        <v>3.78713531456</v>
       </c>
       <c r="S16">
-        <v>0.02577367650488474</v>
+        <v>2.618363224040757E-06</v>
       </c>
       <c r="T16">
-        <v>0.02577367650488474</v>
+        <v>1.770650084763637E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1455,61 +1455,619 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>1.093437</v>
+      </c>
+      <c r="H17">
+        <v>3.280311</v>
+      </c>
+      <c r="I17">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J17">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.919382</v>
+      </c>
+      <c r="N17">
+        <v>2.758146</v>
+      </c>
+      <c r="O17">
+        <v>0.005737395776689386</v>
+      </c>
+      <c r="P17">
+        <v>0.005740724152602041</v>
+      </c>
+      <c r="Q17">
+        <v>1.005286295934</v>
+      </c>
+      <c r="R17">
+        <v>9.047576663406</v>
+      </c>
+      <c r="S17">
+        <v>4.170230712569437E-06</v>
+      </c>
+      <c r="T17">
+        <v>4.230134667851602E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>1.093437</v>
+      </c>
+      <c r="H18">
+        <v>3.280311</v>
+      </c>
+      <c r="I18">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J18">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>2.531134333333334</v>
+      </c>
+      <c r="N18">
+        <v>7.593403</v>
+      </c>
+      <c r="O18">
+        <v>0.01579552289940435</v>
+      </c>
+      <c r="P18">
+        <v>0.01580468619229758</v>
+      </c>
+      <c r="Q18">
+        <v>2.767635932037</v>
+      </c>
+      <c r="R18">
+        <v>24.908723388333</v>
+      </c>
+      <c r="S18">
+        <v>1.148098846236454E-05</v>
+      </c>
+      <c r="T18">
+        <v>1.164590898279799E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>1.093437</v>
+      </c>
+      <c r="H19">
+        <v>3.280311</v>
+      </c>
+      <c r="I19">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J19">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>65.03016100000001</v>
+      </c>
+      <c r="N19">
+        <v>195.090483</v>
+      </c>
+      <c r="O19">
+        <v>0.4058201825561418</v>
+      </c>
+      <c r="P19">
+        <v>0.4060556068101174</v>
+      </c>
+      <c r="Q19">
+        <v>71.10638415335701</v>
+      </c>
+      <c r="R19">
+        <v>639.9574573802131</v>
+      </c>
+      <c r="S19">
+        <v>0.0002949707245144404</v>
+      </c>
+      <c r="T19">
+        <v>0.0002992078793168359</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>1.093437</v>
+      </c>
+      <c r="H20">
+        <v>3.280311</v>
+      </c>
+      <c r="I20">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J20">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>91.48438500000002</v>
+      </c>
+      <c r="N20">
+        <v>274.453155</v>
+      </c>
+      <c r="O20">
+        <v>0.5709075489100568</v>
+      </c>
+      <c r="P20">
+        <v>0.5712387435858478</v>
+      </c>
+      <c r="Q20">
+        <v>100.032411481245</v>
+      </c>
+      <c r="R20">
+        <v>900.2917033312052</v>
+      </c>
+      <c r="S20">
+        <v>0.0004149646088867596</v>
+      </c>
+      <c r="T20">
+        <v>0.0004209254352984756</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
         <v>24</v>
       </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>1.093437</v>
+      </c>
+      <c r="H21">
+        <v>3.280311</v>
+      </c>
+      <c r="I21">
+        <v>0.000726850800412406</v>
+      </c>
+      <c r="J21">
+        <v>0.0007368642971521721</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0.27872</v>
+      </c>
+      <c r="N21">
+        <v>0.55744</v>
+      </c>
+      <c r="O21">
+        <v>0.001739349857707531</v>
+      </c>
+      <c r="P21">
+        <v>0.001160239259135115</v>
+      </c>
+      <c r="Q21">
+        <v>0.30476276064</v>
+      </c>
+      <c r="R21">
+        <v>1.82857656384</v>
+      </c>
+      <c r="S21">
+        <v>1.264247836271924E-06</v>
+      </c>
+      <c r="T21">
+        <v>8.549388862109536E-07</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H22">
+        <v>122.658596</v>
+      </c>
+      <c r="I22">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J22">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>0.919382</v>
+      </c>
+      <c r="N22">
+        <v>2.758146</v>
+      </c>
+      <c r="O22">
+        <v>0.005737395776689386</v>
+      </c>
+      <c r="P22">
+        <v>0.005740724152602041</v>
+      </c>
+      <c r="Q22">
+        <v>56.385052653836</v>
+      </c>
+      <c r="R22">
+        <v>338.310315923016</v>
+      </c>
+      <c r="S22">
+        <v>0.0002339022020472358</v>
+      </c>
+      <c r="T22">
+        <v>0.0001581747521041766</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H23">
+        <v>122.658596</v>
+      </c>
+      <c r="I23">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J23">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>2.531134333333334</v>
+      </c>
+      <c r="N23">
+        <v>7.593403</v>
+      </c>
+      <c r="O23">
+        <v>0.01579552289940435</v>
+      </c>
+      <c r="P23">
+        <v>0.01580468619229758</v>
+      </c>
+      <c r="Q23">
+        <v>155.2326918070313</v>
+      </c>
+      <c r="R23">
+        <v>931.3961508421879</v>
+      </c>
+      <c r="S23">
+        <v>0.0006439520180338845</v>
+      </c>
+      <c r="T23">
+        <v>0.0004354681141433815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H24">
+        <v>122.658596</v>
+      </c>
+      <c r="I24">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J24">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>65.03016100000001</v>
+      </c>
+      <c r="N24">
+        <v>195.090483</v>
+      </c>
+      <c r="O24">
+        <v>0.4058201825561418</v>
+      </c>
+      <c r="P24">
+        <v>0.4060556068101174</v>
+      </c>
+      <c r="Q24">
+        <v>3988.254122956978</v>
+      </c>
+      <c r="R24">
+        <v>23929.52473774187</v>
+      </c>
+      <c r="S24">
+        <v>0.0165444808114432</v>
+      </c>
+      <c r="T24">
+        <v>0.01118809112585377</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17">
-        <v>58.0382766233033</v>
-      </c>
-      <c r="H17">
-        <v>58.0382766233033</v>
-      </c>
-      <c r="I17">
-        <v>0.04130765455473241</v>
-      </c>
-      <c r="J17">
-        <v>0.04130765455473241</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.224311028331199</v>
-      </c>
-      <c r="N17">
-        <v>0.224311028331199</v>
-      </c>
-      <c r="O17">
-        <v>0.00156533981489493</v>
-      </c>
-      <c r="P17">
-        <v>0.00156533981489493</v>
-      </c>
-      <c r="Q17">
-        <v>13.01862551194375</v>
-      </c>
-      <c r="R17">
-        <v>13.01862551194375</v>
-      </c>
-      <c r="S17">
-        <v>6.466051633444853E-05</v>
-      </c>
-      <c r="T17">
-        <v>6.466051633444853E-05</v>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H25">
+        <v>122.658596</v>
+      </c>
+      <c r="I25">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J25">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>91.48438500000002</v>
+      </c>
+      <c r="N25">
+        <v>274.453155</v>
+      </c>
+      <c r="O25">
+        <v>0.5709075489100568</v>
+      </c>
+      <c r="P25">
+        <v>0.5712387435858478</v>
+      </c>
+      <c r="Q25">
+        <v>5610.67311001173</v>
+      </c>
+      <c r="R25">
+        <v>33664.03866007038</v>
+      </c>
+      <c r="S25">
+        <v>0.02327476403109601</v>
+      </c>
+      <c r="T25">
+        <v>0.01573939876871426</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>61.32929799999999</v>
+      </c>
+      <c r="H26">
+        <v>122.658596</v>
+      </c>
+      <c r="I26">
+        <v>0.04076800889308754</v>
+      </c>
+      <c r="J26">
+        <v>0.02755310095024899</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.27872</v>
+      </c>
+      <c r="N26">
+        <v>0.55744</v>
+      </c>
+      <c r="O26">
+        <v>0.001739349857707531</v>
+      </c>
+      <c r="P26">
+        <v>0.001160239259135115</v>
+      </c>
+      <c r="Q26">
+        <v>17.09370193856</v>
+      </c>
+      <c r="R26">
+        <v>68.37480775424</v>
+      </c>
+      <c r="S26">
+        <v>7.090983046721119E-05</v>
+      </c>
+      <c r="T26">
+        <v>3.196818943339193E-05</v>
       </c>
     </row>
   </sheetData>
